--- a/data/trans_orig/P57B5_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>232477</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>208117</v>
+        <v>208115</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>259289</v>
+        <v>257531</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4226686851058847</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3783793496256403</v>
+        <v>0.3783758241144685</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4714140074386614</v>
+        <v>0.4682186246224161</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>247</v>
@@ -762,19 +762,19 @@
         <v>188023</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>168994</v>
+        <v>169452</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>207253</v>
+        <v>207889</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3849695072424065</v>
+        <v>0.3849695072424064</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3460080488952701</v>
+        <v>0.3469457531332296</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4243419600195886</v>
+        <v>0.4256444526143399</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>462</v>
@@ -783,19 +783,19 @@
         <v>420501</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>389377</v>
+        <v>392868</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>451792</v>
+        <v>454538</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4049374815768907</v>
+        <v>0.4049374815768906</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3749659771413462</v>
+        <v>0.3783277148087113</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4350700764741832</v>
+        <v>0.4377144299972642</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>224186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>202048</v>
+        <v>202002</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>248433</v>
+        <v>250655</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4075943979152444</v>
+        <v>0.4075943979152445</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3673448518702692</v>
+        <v>0.367261617619125</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4516776331646907</v>
+        <v>0.455716955451764</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>301</v>
@@ -833,19 +833,19 @@
         <v>204323</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>186695</v>
+        <v>185678</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>222719</v>
+        <v>223640</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4183427275774659</v>
+        <v>0.4183427275774658</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3822504706763856</v>
+        <v>0.3801675910809902</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4560070403874648</v>
+        <v>0.4578939911741667</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>537</v>
@@ -854,19 +854,19 @@
         <v>428509</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>398771</v>
+        <v>396274</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>461492</v>
+        <v>460188</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4126497023446337</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3840118242323325</v>
+        <v>0.3816073025371992</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4444115563798801</v>
+        <v>0.4431562234738871</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>70455</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56549</v>
+        <v>57911</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>87664</v>
+        <v>88688</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1280952133376741</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1028111954446774</v>
+        <v>0.105288672678884</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1593825160116052</v>
+        <v>0.1612448452774919</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>110</v>
@@ -904,19 +904,19 @@
         <v>74617</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>61349</v>
+        <v>61268</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>89156</v>
+        <v>90463</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1527740910539588</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1256088554920582</v>
+        <v>0.1254444390639823</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1825435341958457</v>
+        <v>0.1852183412355003</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>193</v>
@@ -925,19 +925,19 @@
         <v>145072</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>126392</v>
+        <v>123648</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>167300</v>
+        <v>164938</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1397025275671581</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1217137218913871</v>
+        <v>0.1190717719301356</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1611080138963808</v>
+        <v>0.1588332731775005</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>22904</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13264</v>
+        <v>14302</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37310</v>
+        <v>37925</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0416417036411967</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02411545912269874</v>
+        <v>0.0260024329189909</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0678336341603037</v>
+        <v>0.06895198030852887</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -975,19 +975,19 @@
         <v>21448</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14801</v>
+        <v>15124</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31156</v>
+        <v>32165</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04391367412616898</v>
+        <v>0.04391367412616897</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03030440321024772</v>
+        <v>0.03096603415121603</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06379036599333783</v>
+        <v>0.06585584966223683</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -996,19 +996,19 @@
         <v>44352</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33234</v>
+        <v>33733</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60867</v>
+        <v>61535</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04271028851131763</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03200431465438151</v>
+        <v>0.03248462051459441</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05861379382017107</v>
+        <v>0.05925719983486599</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>198471</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>174814</v>
+        <v>175943</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>220441</v>
+        <v>223293</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4107326354793804</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3617742870509194</v>
+        <v>0.3641106548293833</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4561986388909364</v>
+        <v>0.4621022606603941</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>171</v>
@@ -1121,19 +1121,19 @@
         <v>134680</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>118353</v>
+        <v>118010</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>151453</v>
+        <v>152028</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3182843161660221</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.279700436289277</v>
+        <v>0.2788901678827146</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3579246669252675</v>
+        <v>0.3592827609069847</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>346</v>
@@ -1142,19 +1142,19 @@
         <v>333151</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>306633</v>
+        <v>305441</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>360921</v>
+        <v>365244</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3675720133743047</v>
+        <v>0.3675720133743048</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3383139242463649</v>
+        <v>0.3369987678771307</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3982120634174884</v>
+        <v>0.4029816868663822</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>208879</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>185992</v>
+        <v>187726</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>231389</v>
+        <v>232087</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4322726587898857</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3849086799846573</v>
+        <v>0.3884960059849046</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4788569062974161</v>
+        <v>0.4803005193187479</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>271</v>
@@ -1192,19 +1192,19 @@
         <v>188503</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>169737</v>
+        <v>168636</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>207115</v>
+        <v>204937</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4454833668203103</v>
+        <v>0.4454833668203104</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.401133598716301</v>
+        <v>0.3985324004116573</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4894688917501731</v>
+        <v>0.4843205903920169</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>492</v>
@@ -1213,19 +1213,19 @@
         <v>397383</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>371273</v>
+        <v>366846</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>429041</v>
+        <v>425344</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.438440238484969</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4096325526131966</v>
+        <v>0.4047487970392212</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.47336968874578</v>
+        <v>0.4692910423686211</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>64353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>50745</v>
+        <v>49463</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>80050</v>
+        <v>79034</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1331773434184728</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1050166458781221</v>
+        <v>0.1023621321767513</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1656623463257585</v>
+        <v>0.1635588309491346</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>123</v>
@@ -1263,19 +1263,19 @@
         <v>83143</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>70097</v>
+        <v>69297</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>100196</v>
+        <v>98696</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1964882072655658</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1656583687157828</v>
+        <v>0.1637677367506866</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2367905374030551</v>
+        <v>0.2332451191993963</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>196</v>
@@ -1284,19 +1284,19 @@
         <v>147495</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>127924</v>
+        <v>128702</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>168701</v>
+        <v>169495</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1627347901081007</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1411407279638257</v>
+        <v>0.14199941656673</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1861317553912359</v>
+        <v>0.1870078177103342</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>11509</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6127</v>
+        <v>6475</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21276</v>
+        <v>22005</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.02381736231226105</v>
+        <v>0.02381736231226104</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01267957639213909</v>
+        <v>0.01340052821312896</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04403124336957069</v>
+        <v>0.04553933626312136</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -1334,19 +1334,19 @@
         <v>16817</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10952</v>
+        <v>11506</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23865</v>
+        <v>24914</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03974410974810164</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02588309373413974</v>
+        <v>0.02719218214230057</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05640037134064213</v>
+        <v>0.05887855939652858</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -1355,19 +1355,19 @@
         <v>28326</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20110</v>
+        <v>19976</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>40841</v>
+        <v>39670</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03125295803262558</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02218789381147962</v>
+        <v>0.02203992856166181</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04506034331299677</v>
+        <v>0.04376899898673642</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>210395</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>189799</v>
+        <v>188404</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>234813</v>
+        <v>232429</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.446813829804653</v>
+        <v>0.4468138298046531</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4030757357506989</v>
+        <v>0.4001112749035117</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4986695798015438</v>
+        <v>0.4936074536312356</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -1480,19 +1480,19 @@
         <v>59611</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48721</v>
+        <v>49474</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>70567</v>
+        <v>71226</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3191688236293722</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2608651041653561</v>
+        <v>0.2648929984582015</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3778338309629445</v>
+        <v>0.3813615314516011</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>280</v>
@@ -1501,19 +1501,19 @@
         <v>270005</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>246250</v>
+        <v>242540</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>297638</v>
+        <v>293769</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4105632819230055</v>
+        <v>0.4105632819230056</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3744417041251207</v>
+        <v>0.3688001594183119</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4525809308751961</v>
+        <v>0.4466980809916988</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>171642</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>149072</v>
+        <v>150966</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>192322</v>
+        <v>191852</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3645156340621465</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3165831102067985</v>
+        <v>0.3206062576936932</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4084330838849944</v>
+        <v>0.4074337745847773</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>119</v>
@@ -1551,19 +1551,19 @@
         <v>78344</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>67546</v>
+        <v>66773</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>90239</v>
+        <v>89815</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.4194745341691434</v>
+        <v>0.4194745341691435</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3616582519485272</v>
+        <v>0.3575185366041845</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.483158588259465</v>
+        <v>0.4808887198601784</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>306</v>
@@ -1572,19 +1572,19 @@
         <v>249987</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>225635</v>
+        <v>227267</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>273355</v>
+        <v>276398</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3801236887722193</v>
+        <v>0.3801236887722194</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.34309474228352</v>
+        <v>0.345576076939614</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4156567276928435</v>
+        <v>0.42028449510364</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>72048</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58361</v>
+        <v>58770</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89092</v>
+        <v>88586</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1530069142539685</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1239414819742633</v>
+        <v>0.1248088006472906</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1892042261318644</v>
+        <v>0.1881301563826251</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>66</v>
@@ -1622,19 +1622,19 @@
         <v>37982</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29837</v>
+        <v>29783</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47384</v>
+        <v>47448</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2033653886413277</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.15975558620274</v>
+        <v>0.1594662421519052</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2537061587687327</v>
+        <v>0.254045987582029</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>153</v>
@@ -1643,19 +1643,19 @@
         <v>110030</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>94749</v>
+        <v>94363</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>129004</v>
+        <v>127483</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1673084709049109</v>
+        <v>0.167308470904911</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1440729305673658</v>
+        <v>0.14348621284271</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1961607537833262</v>
+        <v>0.1938479691140751</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>16793</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9462</v>
+        <v>10184</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27985</v>
+        <v>28423</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0356636218792321</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.020093973015661</v>
+        <v>0.02162810796015248</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05943229970689484</v>
+        <v>0.06036137314298858</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -1693,19 +1693,19 @@
         <v>10831</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6703</v>
+        <v>6321</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17313</v>
+        <v>17059</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05799125356015658</v>
+        <v>0.05799125356015659</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0358920101545667</v>
+        <v>0.03384253019712719</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0926978794225303</v>
+        <v>0.09133533727808506</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -1714,19 +1714,19 @@
         <v>27624</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>19931</v>
+        <v>19214</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39791</v>
+        <v>39093</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04200455839986415</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03030662693065904</v>
+        <v>0.02921646872660632</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06050478376807356</v>
+        <v>0.05944322221365321</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>426051</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>391187</v>
+        <v>390536</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>464634</v>
+        <v>462408</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3774441942680977</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3465574016420453</v>
+        <v>0.3459807351100073</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4116252031350631</v>
+        <v>0.4096532497468913</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>325</v>
@@ -1839,19 +1839,19 @@
         <v>264896</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>242782</v>
+        <v>239040</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>293371</v>
+        <v>289673</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3084459464102928</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2826959127379946</v>
+        <v>0.2783391277576265</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3416023490969018</v>
+        <v>0.3372970819590814</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>687</v>
@@ -1860,19 +1860,19 @@
         <v>690947</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>647863</v>
+        <v>650113</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>733684</v>
+        <v>737462</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3476310605302081</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3259543830662358</v>
+        <v>0.3270864140867702</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3691329750977932</v>
+        <v>0.3710338742113882</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>455244</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>418689</v>
+        <v>419194</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>490231</v>
+        <v>492189</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4033062804865755</v>
+        <v>0.4033062804865756</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3709219292803858</v>
+        <v>0.3713692166224826</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4343016140647513</v>
+        <v>0.436036521858088</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>538</v>
@@ -1910,19 +1910,19 @@
         <v>375777</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>351069</v>
+        <v>352563</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>403190</v>
+        <v>404177</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4375559816862711</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4087868111843811</v>
+        <v>0.4105260371477929</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4694760308029797</v>
+        <v>0.4706253979722228</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>991</v>
@@ -1931,19 +1931,19 @@
         <v>831021</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>784413</v>
+        <v>792323</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>876430</v>
+        <v>873672</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4181050754422619</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3946557428358628</v>
+        <v>0.3986353742977867</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4409515148436887</v>
+        <v>0.4395641786538869</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>201707</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>178025</v>
+        <v>177197</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>227597</v>
+        <v>226346</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1786947471732127</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1577145383427697</v>
+        <v>0.1569809494460224</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2016313964249619</v>
+        <v>0.2005227657277933</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>283</v>
@@ -1981,19 +1981,19 @@
         <v>166775</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>147473</v>
+        <v>148922</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>184892</v>
+        <v>186906</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1941933796983824</v>
+        <v>0.1941933796983825</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1717179611121543</v>
+        <v>0.173405058538944</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2152889185738047</v>
+        <v>0.2176346758228152</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>525</v>
@@ -2002,19 +2002,19 @@
         <v>368482</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>339588</v>
+        <v>340730</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>402730</v>
+        <v>399385</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1853914796058903</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1708541021186915</v>
+        <v>0.1714288735240235</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2026224093051293</v>
+        <v>0.2009396467386318</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>45777</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34663</v>
+        <v>33698</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59511</v>
+        <v>59881</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04055477807211407</v>
+        <v>0.04055477807211408</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03070877293247996</v>
+        <v>0.02985310994584787</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05272162021105842</v>
+        <v>0.05304941280617013</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>80</v>
@@ -2052,19 +2052,19 @@
         <v>51361</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40968</v>
+        <v>40500</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>65987</v>
+        <v>63718</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05980469220505367</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04770297676333164</v>
+        <v>0.04715793122280756</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07683535818825979</v>
+        <v>0.07419296443727721</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>137</v>
@@ -2073,19 +2073,19 @@
         <v>97138</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>80634</v>
+        <v>81255</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>116371</v>
+        <v>115595</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04887238442163967</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04056857956261339</v>
+        <v>0.04088109435187639</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05854863219684572</v>
+        <v>0.05815845193934686</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>183189</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>157878</v>
+        <v>159057</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>208066</v>
+        <v>212347</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.32253580012309</v>
+        <v>0.3225358001230899</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2779722589246745</v>
+        <v>0.280047029915464</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3663362291446909</v>
+        <v>0.3738739054117116</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>274</v>
@@ -2198,19 +2198,19 @@
         <v>205458</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>184120</v>
+        <v>184338</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>228079</v>
+        <v>227709</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2481350622917966</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.222364861757526</v>
+        <v>0.2226279871894428</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2754547654595215</v>
+        <v>0.2750079583241883</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>426</v>
@@ -2219,19 +2219,19 @@
         <v>388647</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>358908</v>
+        <v>355421</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>421680</v>
+        <v>420219</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2784056428756331</v>
+        <v>0.278405642875633</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2571023743146954</v>
+        <v>0.2546043333961585</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3020690130922903</v>
+        <v>0.301022046418201</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>233252</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>211844</v>
+        <v>205935</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>261991</v>
+        <v>258536</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4106803703344097</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.372987644724289</v>
+        <v>0.3625853311768094</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4612813040154808</v>
+        <v>0.4551980648867893</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>534</v>
@@ -2269,19 +2269,19 @@
         <v>352260</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>329484</v>
+        <v>328179</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>375427</v>
+        <v>377962</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4254304683635701</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.397922921942939</v>
+        <v>0.3963470182683011</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4534096944116036</v>
+        <v>0.456471125955432</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>754</v>
@@ -2290,19 +2290,19 @@
         <v>585512</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>555112</v>
+        <v>549664</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>621442</v>
+        <v>622108</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4194292640203601</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3976520402618453</v>
+        <v>0.393749922299875</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4451678084145388</v>
+        <v>0.4456449220410066</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>109301</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>91213</v>
+        <v>91072</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>127166</v>
+        <v>127160</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1924434419648376</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1605955962687559</v>
+        <v>0.1603487367898031</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.223897817521049</v>
+        <v>0.2238866922661237</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>335</v>
@@ -2340,19 +2340,19 @@
         <v>194230</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>174582</v>
+        <v>174462</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>214655</v>
+        <v>213561</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.23457452537022</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2108452035926771</v>
+        <v>0.2107002257334412</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.259242948721828</v>
+        <v>0.2579208307195461</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>464</v>
@@ -2361,19 +2361,19 @@
         <v>303531</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>278882</v>
+        <v>274603</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>333239</v>
+        <v>327702</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2174331314475034</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1997762384208474</v>
+        <v>0.1967105908441818</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2387145668021401</v>
+        <v>0.2347479427243493</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>42223</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>30303</v>
+        <v>30173</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>55516</v>
+        <v>55272</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.07434038757766269</v>
+        <v>0.07434038757766268</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05335306357232803</v>
+        <v>0.05312571745216025</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09774480496220951</v>
+        <v>0.09731588750855626</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>141</v>
@@ -2411,19 +2411,19 @@
         <v>76061</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>63878</v>
+        <v>63389</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>89381</v>
+        <v>89086</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09185994397441324</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07714709070359201</v>
+        <v>0.07655557577419478</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1079471178251635</v>
+        <v>0.1075906337079525</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>187</v>
@@ -2432,19 +2432,19 @@
         <v>118284</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>100871</v>
+        <v>100894</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>137358</v>
+        <v>137379</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.0847319616565034</v>
+        <v>0.08473196165650339</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0722588081022953</v>
+        <v>0.07227535075868954</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09839592636938832</v>
+        <v>0.09841077564775072</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>156587</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>133642</v>
+        <v>131259</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>179304</v>
+        <v>177492</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6615076958430207</v>
+        <v>0.6615076958430206</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5645753133652592</v>
+        <v>0.5545081902506396</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7574791811493526</v>
+        <v>0.7498226597805095</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>288</v>
@@ -2557,19 +2557,19 @@
         <v>271164</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>244641</v>
+        <v>243700</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>298741</v>
+        <v>298841</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3226945154105126</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2911313993566891</v>
+        <v>0.2900115505706211</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3555123962611857</v>
+        <v>0.3556319055930134</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>354</v>
@@ -2578,19 +2578,19 @@
         <v>427750</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>392605</v>
+        <v>390474</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>469351</v>
+        <v>464884</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3971600285541299</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3645279029520252</v>
+        <v>0.3625500768470216</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4357854911372907</v>
+        <v>0.4316383442192261</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>60709</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42141</v>
+        <v>42335</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>84445</v>
+        <v>86581</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2564663652681408</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1780269457387444</v>
+        <v>0.178845592977975</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.356742483196575</v>
+        <v>0.3657661441719959</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>442</v>
@@ -2628,19 +2628,19 @@
         <v>321148</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>293996</v>
+        <v>294667</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>349493</v>
+        <v>346462</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.382177005267783</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3498660120850403</v>
+        <v>0.3506642175355108</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4159092492600192</v>
+        <v>0.412302293837419</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>473</v>
@@ -2649,19 +2649,19 @@
         <v>381856</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>347754</v>
+        <v>348089</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>417058</v>
+        <v>417770</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3545478932502514</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3228849252828314</v>
+        <v>0.3231956436136826</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3872327482930832</v>
+        <v>0.3878939047504772</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>17244</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8140</v>
+        <v>8994</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>31286</v>
+        <v>33864</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.07284674335850265</v>
+        <v>0.07284674335850269</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0343878553446536</v>
+        <v>0.03799379830255512</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1321700509900554</v>
+        <v>0.1430620020084453</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>315</v>
@@ -2699,19 +2699,19 @@
         <v>188186</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>167360</v>
+        <v>167999</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>209009</v>
+        <v>211277</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2239485049813754</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1991643521815067</v>
+        <v>0.1999250426039951</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2487277326163062</v>
+        <v>0.2514270357788875</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>327</v>
@@ -2720,19 +2720,19 @@
         <v>205430</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>181459</v>
+        <v>180449</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>232366</v>
+        <v>227454</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1907388458949482</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1684825914626534</v>
+        <v>0.167544682471044</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2157487119033167</v>
+        <v>0.2111878440318032</v>
       </c>
     </row>
     <row r="32">
@@ -2752,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10376</v>
+        <v>10639</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.009179195530335889</v>
+        <v>0.009179195530335893</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04383414602408216</v>
+        <v>0.04494503397997592</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>108</v>
@@ -2770,19 +2770,19 @@
         <v>59813</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>49479</v>
+        <v>49624</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>72171</v>
+        <v>72966</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07117997434032899</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05888176311246829</v>
+        <v>0.05905431610703807</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08588616890359399</v>
+        <v>0.08683201876454266</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>110</v>
@@ -2791,19 +2791,19 @@
         <v>61986</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>50336</v>
+        <v>50687</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>74784</v>
+        <v>75585</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.05755323230067054</v>
+        <v>0.05755323230067053</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04673631414792941</v>
+        <v>0.04706211754625648</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06943599604638279</v>
+        <v>0.07017996835886556</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>1407170</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1346016</v>
+        <v>1345395</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1478045</v>
+        <v>1473737</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4093503753624486</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3915604431346228</v>
+        <v>0.3913797680892036</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4299682187538773</v>
+        <v>0.4287147549811067</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1390</v>
@@ -2916,19 +2916,19 @@
         <v>1123831</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1073238</v>
+        <v>1074343</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1175034</v>
+        <v>1173461</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3099839381648697</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2960288697352985</v>
+        <v>0.2963338110636426</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3241071307572811</v>
+        <v>0.3236732655267324</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2555</v>
@@ -2937,19 +2937,19 @@
         <v>2531001</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2448402</v>
+        <v>2441436</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2619465</v>
+        <v>2613733</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3583455508653438</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3466509635438916</v>
+        <v>0.3456646809730494</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3708704676926713</v>
+        <v>0.370058945600614</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>1353912</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1290601</v>
+        <v>1297624</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1419331</v>
+        <v>1415832</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3938575399664613</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3754401509824044</v>
+        <v>0.3774830592019553</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4128879274080191</v>
+        <v>0.4118702672116224</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2205</v>
@@ -2987,19 +2987,19 @@
         <v>1520355</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1468642</v>
+        <v>1470829</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1572000</v>
+        <v>1579357</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.4193562599766713</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4050924629274892</v>
+        <v>0.4056955306267404</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.433601222747344</v>
+        <v>0.4356306789640769</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3553</v>
@@ -3008,19 +3008,19 @@
         <v>2874268</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2793981</v>
+        <v>2796408</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2951605</v>
+        <v>2964823</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.4069460412320905</v>
+        <v>0.4069460412320904</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.395578905737024</v>
+        <v>0.3959224384285998</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4178956093553231</v>
+        <v>0.4197670945728795</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>535108</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>495549</v>
+        <v>492603</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>577576</v>
+        <v>581019</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.1556645157586414</v>
+        <v>0.1556645157586413</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1441567286185499</v>
+        <v>0.1432997947645245</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1680187606202884</v>
+        <v>0.169020272547959</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1232</v>
@@ -3058,19 +3058,19 @@
         <v>744932</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>703445</v>
+        <v>700325</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>783941</v>
+        <v>780284</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2054730756704477</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1940296515981131</v>
+        <v>0.1931692130320263</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2162326139291557</v>
+        <v>0.2152239144082818</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1858</v>
@@ -3079,19 +3079,19 @@
         <v>1280040</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1224604</v>
+        <v>1220423</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1340467</v>
+        <v>1338372</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.181231265743888</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1733825762131608</v>
+        <v>0.1727905667585061</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1897866246629398</v>
+        <v>0.1894900425323043</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>141379</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>117929</v>
+        <v>118517</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>166788</v>
+        <v>166441</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.04112756891244866</v>
+        <v>0.04112756891244865</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03430594051968072</v>
+        <v>0.03447702291300252</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0485191413905038</v>
+        <v>0.04841809982502614</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>400</v>
@@ -3129,19 +3129,19 @@
         <v>236331</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>214824</v>
+        <v>214258</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>258449</v>
+        <v>260049</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0651867261880114</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.05925447007435028</v>
+        <v>0.05909841520319772</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07128749193842096</v>
+        <v>0.07172867856893456</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>554</v>
@@ -3150,19 +3150,19 @@
         <v>377710</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>345026</v>
+        <v>344838</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>415840</v>
+        <v>413407</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05347714215867769</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04884963134922209</v>
+        <v>0.04882306106297798</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05887563274800846</v>
+        <v>0.05853121478086157</v>
       </c>
     </row>
     <row r="38">
